--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PRE_Robotis_Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A313EE8A-65B9-49B9-9F48-D36B4929E06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17C4610-4757-49E3-839F-695E78F771BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8EB95F2-9FE0-4F59-A57B-F5F7A60D4363}"/>
   </bookViews>
@@ -22,6 +22,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Taches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement </t>
+  </si>
+  <si>
+    <t>Gestion clavier</t>
+  </si>
+  <si>
+    <t>Gestion Manette</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +393,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0A05F-6C1C-4BA6-844C-763B47F7A8D0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="55.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44468</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44475</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44482</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44489</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44496</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44503</v>
+      </c>
+      <c r="I1" s="1">
+        <v>44510</v>
+      </c>
+      <c r="J1" s="1">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PRE_Robotis_Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17C4610-4757-49E3-839F-695E78F771BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2683E1-2C2F-4D65-83D9-4D424371E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8EB95F2-9FE0-4F59-A57B-F5F7A60D4363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Planning</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Gestion Manette</t>
+  </si>
+  <si>
+    <t>Gestion caméra</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0A05F-6C1C-4BA6-844C-763B47F7A8D0}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,6 +460,11 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PRE_Robotis_Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2683E1-2C2F-4D65-83D9-4D424371E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAD277-4D1E-456C-B684-2D92993DA4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8EB95F2-9FE0-4F59-A57B-F5F7A60D4363}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Planning</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Taches</t>
   </si>
   <si>
-    <t xml:space="preserve">Avancement </t>
-  </si>
-  <si>
     <t>Gestion clavier</t>
   </si>
   <si>
@@ -43,13 +40,31 @@
   </si>
   <si>
     <t>Gestion caméra</t>
+  </si>
+  <si>
+    <t>Avancement</t>
+  </si>
+  <si>
+    <t>Découverte SDK et ROS</t>
+  </si>
+  <si>
+    <t>Analyse des varibles à atteindre sur les moteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de base pour le contrôle du robot </t>
+  </si>
+  <si>
+    <t>Code de base pour la gestion clavier</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +72,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Quattrocento Sans"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,17 +132,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,76 +526,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0A05F-6C1C-4BA6-844C-763B47F7A8D0}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="55.21875" customWidth="1"/>
+    <col min="3" max="32" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" ht="61.8" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="9">
+        <v>44447</v>
+      </c>
+      <c r="D1" s="9">
+        <v>44454</v>
+      </c>
+      <c r="E1" s="9">
+        <v>44461</v>
+      </c>
+      <c r="F1" s="9">
         <v>44468</v>
       </c>
-      <c r="D1" s="1">
+      <c r="G1" s="9">
         <v>44475</v>
       </c>
-      <c r="E1" s="1">
+      <c r="H1" s="9">
         <v>44482</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" s="9">
         <v>44489</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J1" s="9">
         <v>44496</v>
       </c>
-      <c r="H1" s="1">
+      <c r="K1" s="9">
         <v>44503</v>
       </c>
-      <c r="I1" s="1">
+      <c r="L1" s="9">
         <v>44510</v>
       </c>
-      <c r="J1" s="1">
+      <c r="M1" s="9">
         <v>44517</v>
       </c>
+      <c r="N1" s="9">
+        <v>44524</v>
+      </c>
+      <c r="O1" s="9">
+        <v>44531</v>
+      </c>
+      <c r="P1" s="9">
+        <v>44538</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>44545</v>
+      </c>
+      <c r="R1" s="13"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="3">
+        <f>AVERAGEA(B5,B6,B7)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+      <c r="B8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.8</v>
-      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5 B8:B9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PRE_Robotis_Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAD277-4D1E-456C-B684-2D92993DA4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C88AD6F-0E4C-48DC-82EC-6C9CD7F560F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8EB95F2-9FE0-4F59-A57B-F5F7A60D4363}"/>
   </bookViews>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Planning</t>
   </si>
@@ -58,13 +65,52 @@
   </si>
   <si>
     <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Récupérer les données de la manette</t>
+  </si>
+  <si>
+    <t>Contrôle linéaire dans les différents plan de la pince avec trois actions sur les joysticks</t>
+  </si>
+  <si>
+    <t>Contrôle des moteurs suivant la position des joysticks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation logiciels </t>
+  </si>
+  <si>
+    <t>Leap Motion</t>
+  </si>
+  <si>
+    <t>Contrôle linéaire dans les différents plan de la pince avec trois actions suivant le point d'arrivé</t>
+  </si>
+  <si>
+    <t>Reconnaissance formes</t>
+  </si>
+  <si>
+    <t>Reconnaissance couleur</t>
+  </si>
+  <si>
+    <t>Calcul des coodonnées de l'object</t>
+  </si>
+  <si>
+    <t>Reconnaissance des gestes</t>
+  </si>
+  <si>
+    <t>Contrôle des mouvements de la pince suivant les gestes reconnu</t>
+  </si>
+  <si>
+    <t>Obtention instantané des coordonnées de la pince</t>
+  </si>
+  <si>
+    <t>Test code réalisé sur PC linux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,16 +128,12 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Quattrocento Sans"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Quattrocento Sans"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -99,12 +141,24 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +177,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -169,48 +229,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,339 +799,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C0A05F-6C1C-4BA6-844C-763B47F7A8D0}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.21875" customWidth="1"/>
+    <col min="1" max="1" width="61.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="32" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="61.8" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="9">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11">
         <v>44447</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="11">
         <v>44454</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="11">
         <v>44461</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="11">
         <v>44468</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="11">
         <v>44475</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="11">
         <v>44482</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="11">
         <v>44489</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="11">
         <v>44496</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="11">
         <v>44503</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="11">
         <v>44510</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="11">
         <v>44517</v>
       </c>
-      <c r="N1" s="9">
+      <c r="N1" s="11">
         <v>44524</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="11">
         <v>44531</v>
       </c>
-      <c r="P1" s="9">
+      <c r="P1" s="11">
         <v>44538</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="12">
         <v>44545</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="55">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="46">
         <f>AVERAGEA(B5,B6,B7)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="8" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="46">
+        <f>AVERAGEA(B9,B10,B11)</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B12" s="46">
+        <f>AVERAGEA(B13,B14,B15,B16,B17)</f>
+        <v>0.38</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="40">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="46">
+        <f>AVERAGEA(B19,B20)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B21" s="46">
+        <f>AVERAGEA(B22,B23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="35">
+        <v>1</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="20">
         <v>0</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J24" s="18"/>
+      <c r="O24" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -870,8 +1541,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B9">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B4:B5 B8 B12:B17">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -882,8 +1553,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="B3:B21">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -894,7 +1565,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B9:B11 B7">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -906,7 +1589,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -918,7 +1601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B10">
+  <conditionalFormatting sqref="B22:B23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
